--- a/Copia1.xlsx
+++ b/Copia1.xlsx
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,37 +621,65 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>#Orden</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>sum</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>max</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="n">
         <v>95480</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>82490</v>
       </c>
+      <c r="D2" t="n">
+        <v>12990</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
+        <v>5678</v>
+      </c>
+      <c r="B3" t="n">
         <v>57000</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>40000</v>
       </c>
+      <c r="D3" t="n">
+        <v>17000</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
+        <v>8520</v>
+      </c>
+      <c r="B4" t="n">
         <v>61570</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>52980</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8590</v>
       </c>
     </row>
   </sheetData>

--- a/Copia1.xlsx
+++ b/Copia1.xlsx
@@ -610,7 +610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,64 +621,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>#Orden</t>
+          <t>sum</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>max</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>min</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>1234</v>
+      <c r="A2" t="n">
+        <v>95480</v>
       </c>
       <c r="B2" t="n">
-        <v>95480</v>
+        <v>82490</v>
       </c>
       <c r="C2" t="n">
-        <v>82490</v>
-      </c>
-      <c r="D2" t="n">
         <v>12990</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>5678</v>
+      <c r="A3" t="n">
+        <v>57000</v>
       </c>
       <c r="B3" t="n">
-        <v>57000</v>
+        <v>40000</v>
       </c>
       <c r="C3" t="n">
-        <v>40000</v>
-      </c>
-      <c r="D3" t="n">
         <v>17000</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>8520</v>
+      <c r="A4" t="n">
+        <v>61570</v>
       </c>
       <c r="B4" t="n">
-        <v>61570</v>
+        <v>52980</v>
       </c>
       <c r="C4" t="n">
-        <v>52980</v>
-      </c>
-      <c r="D4" t="n">
         <v>8590</v>
       </c>
     </row>
